--- a/SeleniumFinalAssigment/TestData/TestData.xlsx
+++ b/SeleniumFinalAssigment/TestData/TestData.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProject\SeleniumFinalAssigment\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\git\devesh-selenium-attra\SeleniumFinalAssigment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E70FA-37C8-4533-A809-6513C23E9FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF416D1-4CE6-4DD4-9809-3A9940C1EEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="180" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightDate" sheetId="1" r:id="rId1"/>
     <sheet name="Flight Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>DXB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>Dubai</t>
   </si>
   <si>
-    <t>NYC</t>
-  </si>
-  <si>
     <t>Departure</t>
   </si>
   <si>
@@ -60,32 +54,74 @@
     <t>Business</t>
   </si>
   <si>
-    <t>03</t>
+    <t>15 Jul’20 , Wednesday</t>
+  </si>
+  <si>
+    <t>FromPlace</t>
+  </si>
+  <si>
+    <t>ToPLace</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>devesh24deo@gmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>https://www.akbartravels.com</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>29 Jul’20 , Wednesday</t>
   </si>
   <si>
     <t>New York, NY</t>
   </si>
   <si>
-    <t>15 Jul’20 , Wednesday</t>
-  </si>
-  <si>
-    <t>15 Aug’20 , Saturday</t>
-  </si>
-  <si>
-    <t>FromPlace</t>
-  </si>
-  <si>
-    <t>ToPLace</t>
-  </si>
-  <si>
-    <t>New York</t>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>VDX</t>
+  </si>
+  <si>
+    <t>Hindon</t>
+  </si>
+  <si>
+    <t>DWC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +129,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,10 +167,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -129,8 +180,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,76 +466,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="20.97265625" collapsed="true"/>
+    <col min="2" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -489,39 +551,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A79537-8442-4473-BE1F-B782D521818D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44027</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44041</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4D338A52-4DE4-48B3-A897-95ECC47BD132}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{8B7A1936-2E0C-4966-A55F-A0DBFA340B9D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9C2EB9C739B5E45A6AC68B8EAD08C30" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="337e3e5f5b5af84ea6221e54fd51a265">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffe57ff9-50de-47de-a6bb-fac1f7d6f129" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="866f60941d9d35a6b5c1dbe75b57bc9a" ns2:_="">
     <xsd:import namespace="ffe57ff9-50de-47de-a6bb-fac1f7d6f129"/>
@@ -653,15 +763,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -669,6 +770,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E68B14-5259-4E98-873A-4A3563A42B21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF86B85-0F9C-466B-81B4-8C7A1042E74B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -687,14 +796,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E68B14-5259-4E98-873A-4A3563A42B21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6F7BAA-C3CA-433E-903A-E02B871E5517}">
   <ds:schemaRefs>

--- a/SeleniumFinalAssigment/TestData/TestData.xlsx
+++ b/SeleniumFinalAssigment/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\git\devesh-selenium-attra\SeleniumFinalAssigment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF416D1-4CE6-4DD4-9809-3A9940C1EEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C853B7-CAB2-4107-A5F9-F8468FE2640E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="180" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightDate" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Dubai</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>15 Jul’20 , Wednesday</t>
-  </si>
-  <si>
     <t>FromPlace</t>
   </si>
   <si>
@@ -105,13 +102,16 @@
     <t>04</t>
   </si>
   <si>
-    <t>VDX</t>
-  </si>
-  <si>
-    <t>Hindon</t>
-  </si>
-  <si>
     <t>DWC</t>
+  </si>
+  <si>
+    <t>21 Jul’20 , Tuesday</t>
+  </si>
+  <si>
+    <t>22 Nov’20 , Sunday</t>
+  </si>
+  <si>
+    <t>29 Nov’20 , Sunday</t>
   </si>
 </sst>
 </file>
@@ -474,28 +474,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="20.97265625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.19140625" collapsed="true"/>
     <col min="2" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -520,7 +520,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,48 +568,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>44027</v>
+        <v>44157</v>
       </c>
       <c r="G2" s="6">
-        <v>44041</v>
+        <v>44164</v>
       </c>
     </row>
   </sheetData>
@@ -623,12 +623,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,15 +761,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E68B14-5259-4E98-873A-4A3563A42B21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6F7BAA-C3CA-433E-903A-E02B871E5517}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -797,11 +799,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6F7BAA-C3CA-433E-903A-E02B871E5517}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E68B14-5259-4E98-873A-4A3563A42B21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SeleniumFinalAssigment/TestData/TestData.xlsx
+++ b/SeleniumFinalAssigment/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\git\devesh-selenium-attra\SeleniumFinalAssigment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C853B7-CAB2-4107-A5F9-F8468FE2640E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18469E46-3D4A-44B3-8539-A8A43B23D719}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightDate" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>29 Jul’20 , Wednesday</t>
-  </si>
-  <si>
     <t>New York, NY</t>
   </si>
   <si>
@@ -105,13 +102,16 @@
     <t>DWC</t>
   </si>
   <si>
-    <t>21 Jul’20 , Tuesday</t>
-  </si>
-  <si>
     <t>22 Nov’20 , Sunday</t>
   </si>
   <si>
     <t>29 Nov’20 , Sunday</t>
+  </si>
+  <si>
+    <t>19 Mar’21 , Friday</t>
+  </si>
+  <si>
+    <t>27 Mar’21 , Saturday</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.19140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="19.71875" collapsed="true"/>
     <col min="2" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -485,17 +485,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>44157</v>
+        <v>44274</v>
       </c>
       <c r="G2" s="6">
-        <v>44164</v>
+        <v>44282</v>
       </c>
     </row>
   </sheetData>
